--- a/Market Share in time - Init.xlsx
+++ b/Market Share in time - Init.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Penel\Documents\Travail\CIRAIG\Maitrise Recherche\8.2 Optimisation_old\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Penel\Documents\Travail\CIRAIG\Maitrise Recherche\11. Rédaction\GitHub Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06A87084-8139-4443-AC31-1124140D5C60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50BAF65D-3DB7-4AAB-9F22-85F616771988}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-90" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2010" sheetId="5" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="2030" sheetId="2" r:id="rId3"/>
     <sheet name="2040" sheetId="3" r:id="rId4"/>
     <sheet name="2050" sheetId="4" r:id="rId5"/>
+    <sheet name="Ref" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="41">
   <si>
     <t>Sol_CIGS</t>
   </si>
@@ -149,12 +150,27 @@
   <si>
     <t>Sol_C-si_Copper</t>
   </si>
+  <si>
+    <t>Ref</t>
+  </si>
+  <si>
+    <t>(European Commission. Joint Research Centre., 2020)</t>
+  </si>
+  <si>
+    <t>European Commission. Joint Research Centre. (2020). Raw materials demand for wind and solar PV technologies in the transition towards a decarbonised energy system. Publications Office. https://data.europa.eu/doi/10.2760/160859</t>
+  </si>
+  <si>
+    <t>(Alami et al., 2023)</t>
+  </si>
+  <si>
+    <t>Alami, A. H., Olabi, A. G., Mdallal, A., Rezk, A., Radwan, A., Rahman, S. M. A., Shah, S. K., &amp; Abdelkareem, M. A. (2023). Concentrating solar power (CSP) technologies : Status and analysis. International Journal of Thermofluids, 18, 100340. https://doi.org/10.1016/j.ijft.2023.100340</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -162,16 +178,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -179,14 +215,48 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="6">
@@ -526,10 +596,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{132BAF12-7558-4847-9305-EF5CAD964167}">
+  <sheetPr>
+    <tabColor theme="7" tint="0.79998168889431442"/>
+  </sheetPr>
   <dimension ref="A1:X14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1592,10 +1665,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <tabColor theme="7" tint="0.79998168889431442"/>
+  </sheetPr>
   <dimension ref="A1:X14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2659,10 +2735,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{634678DF-9BDA-43A7-8D1E-DBFF337D4E8A}">
+  <sheetPr>
+    <tabColor theme="7" tint="0.79998168889431442"/>
+  </sheetPr>
   <dimension ref="A1:X14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3719,10 +3798,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{756554FB-9F2E-4457-9995-BA09BF93D746}">
+  <sheetPr>
+    <tabColor theme="7" tint="0.79998168889431442"/>
+  </sheetPr>
   <dimension ref="A1:X14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4775,10 +4857,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E614B402-A9CD-43D8-89AC-934BD122D2D1}">
+  <sheetPr>
+    <tabColor theme="7" tint="0.79998168889431442"/>
+  </sheetPr>
   <dimension ref="A1:X14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5836,4 +5921,55 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29343D5E-EF2E-49CE-8B51-D9A8DDF2BD03}">
+  <sheetPr>
+    <tabColor theme="4" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="237.6328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" display="https://data.europa.eu/doi/10.2760/160859" xr:uid="{6E7B4B83-CD24-453A-82D9-3E03A51E6BA1}"/>
+    <hyperlink ref="C3" r:id="rId2" display="https://doi.org/10.1016/j.ijft.2023.100340" xr:uid="{3D6BEAF7-742A-4264-BF80-7A80E75597DB}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Market Share in time - Init.xlsx
+++ b/Market Share in time - Init.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Penel\Documents\Travail\CIRAIG\Maitrise Recherche\11. Rédaction\GitHub Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50BAF65D-3DB7-4AAB-9F22-85F616771988}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{231DF36A-83BB-4308-9AAD-D32B38E881C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2010" sheetId="5" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="2030" sheetId="2" r:id="rId3"/>
     <sheet name="2040" sheetId="3" r:id="rId4"/>
     <sheet name="2050" sheetId="4" r:id="rId5"/>
-    <sheet name="Ref" sheetId="6" r:id="rId6"/>
+    <sheet name="Ref" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="71">
   <si>
     <t>Sol_CIGS</t>
   </si>
@@ -165,12 +165,106 @@
   <si>
     <t>Alami, A. H., Olabi, A. G., Mdallal, A., Rezk, A., Radwan, A., Rahman, S. M. A., Shah, S. K., &amp; Abdelkareem, M. A. (2023). Concentrating solar power (CSP) technologies : Status and analysis. International Journal of Thermofluids, 18, 100340. https://doi.org/10.1016/j.ijft.2023.100340</t>
   </si>
+  <si>
+    <t xml:space="preserve">Wind </t>
+  </si>
+  <si>
+    <t>Solar PV</t>
+  </si>
+  <si>
+    <t>Solar CSP</t>
+  </si>
+  <si>
+    <t>ONSHORE</t>
+  </si>
+  <si>
+    <t>Figure 12. Share of onshore (left) and offshore (right) wind turbine sub-technologies in the global market</t>
+  </si>
+  <si>
+    <t>DD-EESG</t>
+  </si>
+  <si>
+    <t>DD-PMSG</t>
+  </si>
+  <si>
+    <t>GB-PMSG</t>
+  </si>
+  <si>
+    <t>GB-DFIG-SCIG</t>
+  </si>
+  <si>
+    <t>Projections from EU :  
+Grows linearly until it's at x% in 2050</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Current market share </t>
+  </si>
+  <si>
+    <t>LDS</t>
+  </si>
+  <si>
+    <t>MDS</t>
+  </si>
+  <si>
+    <t>HDS</t>
+  </si>
+  <si>
+    <t>Solar..CSP</t>
+  </si>
+  <si>
+    <t>C-si</t>
+  </si>
+  <si>
+    <t>CdTe</t>
+  </si>
+  <si>
+    <t>CIGS</t>
+  </si>
+  <si>
+    <t>OFFSHORE</t>
+  </si>
+  <si>
+    <t>a-Si</t>
+  </si>
+  <si>
+    <t>Linearisation</t>
+  </si>
+  <si>
+    <t>Figure 10. Annual installed capacity of onshore and offshore wind by 2050</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MDS </t>
+  </si>
+  <si>
+    <t>Annualy installed</t>
+  </si>
+  <si>
+    <t>Cumulated</t>
+  </si>
+  <si>
+    <t>Market Share</t>
+  </si>
+  <si>
+    <t>Onshore</t>
+  </si>
+  <si>
+    <t>Offshore</t>
+  </si>
+  <si>
+    <t>%Onshore</t>
+  </si>
+  <si>
+    <t>%Offshore</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -192,8 +286,15 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -206,8 +307,56 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -239,25 +388,290 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Pourcentage" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="6">
     <dxf>
@@ -331,6 +745,185 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>569686</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>111579</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>531203</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>154806</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Image 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6F7F964-72A0-4989-A00C-01D174AACB3A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="27353986" y="2638879"/>
+          <a:ext cx="3771517" cy="2621327"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>299357</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>145143</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>20295</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>31857</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Image 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D3267D0-6337-4D34-8C33-21A16703A230}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5747657" y="1161143"/>
+          <a:ext cx="6578938" cy="2096514"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>755196</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>108858</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>501396</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>61686</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Image 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DC2C52E-3068-4C0E-AFF7-B4B3A1A88A38}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:srcRect r="21070" b="2166"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20681496" y="648608"/>
+          <a:ext cx="4318200" cy="2899228"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>235858</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>169636</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Image 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{520A4E1F-346B-43BD-8048-810629C1EBF0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:srcRect l="49792" t="5357" b="4406"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8496300" y="3816350"/>
+          <a:ext cx="3283858" cy="4036786"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -601,7 +1194,7 @@
   </sheetPr>
   <dimension ref="A1:X14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
@@ -1670,7 +2263,7 @@
   </sheetPr>
   <dimension ref="A1:X14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
@@ -2740,7 +3333,7 @@
   </sheetPr>
   <dimension ref="A1:X14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
@@ -3803,7 +4396,7 @@
   </sheetPr>
   <dimension ref="A1:X14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
@@ -4862,7 +5455,7 @@
   </sheetPr>
   <dimension ref="A1:X14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
@@ -5924,52 +6517,1675 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29343D5E-EF2E-49CE-8B51-D9A8DDF2BD03}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EBC26E4-333D-45F1-AB92-D18293F7D4C7}">
   <sheetPr>
-    <tabColor theme="4" tint="0.79998168889431442"/>
+    <tabColor theme="0" tint="-4.9989318521683403E-2"/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:AS43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="T34" sqref="T34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="3" max="3" width="237.6328125" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:45" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="6"/>
+      <c r="R1" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="S1" s="8"/>
+      <c r="T1" s="8"/>
+      <c r="U1" s="8"/>
+      <c r="V1" s="8"/>
+      <c r="W1" s="8"/>
+      <c r="X1" s="8"/>
+      <c r="Y1" s="8"/>
+      <c r="Z1" s="8"/>
+      <c r="AA1" s="8"/>
+      <c r="AB1" s="8"/>
+      <c r="AC1" s="8"/>
+      <c r="AD1" s="8"/>
+      <c r="AE1" s="8"/>
+      <c r="AF1" s="8"/>
+      <c r="AG1" s="9"/>
+      <c r="AI1" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ1" s="11"/>
+      <c r="AK1" s="11"/>
+      <c r="AL1" s="11"/>
+      <c r="AM1" s="11"/>
+      <c r="AN1" s="11"/>
+      <c r="AO1" s="12"/>
+      <c r="AQ1" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-    </row>
-    <row r="2" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+      <c r="AR1" s="13"/>
+      <c r="AS1" s="13"/>
+    </row>
+    <row r="2" spans="1:45" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="15"/>
+      <c r="R2" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17"/>
+      <c r="U2" s="17"/>
+      <c r="V2" s="17"/>
+      <c r="W2" s="17"/>
+      <c r="X2" s="17"/>
+      <c r="Y2" s="17"/>
+      <c r="Z2" s="17"/>
+      <c r="AA2" s="17"/>
+      <c r="AB2" s="17"/>
+      <c r="AC2" s="17"/>
+      <c r="AD2" s="17"/>
+      <c r="AE2" s="17"/>
+      <c r="AF2" s="17"/>
+      <c r="AG2" s="18"/>
+      <c r="AI2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ2" s="14"/>
+      <c r="AK2" s="14"/>
+      <c r="AL2" s="14"/>
+      <c r="AM2" s="14"/>
+      <c r="AN2" s="14"/>
+      <c r="AO2" s="15"/>
+      <c r="AQ2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AS2" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:45" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="14"/>
+      <c r="C3" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="15"/>
+      <c r="R3" s="22"/>
+      <c r="S3" s="14"/>
+      <c r="T3" s="14"/>
+      <c r="U3" s="14"/>
+      <c r="V3" s="14"/>
+      <c r="W3" s="14"/>
+      <c r="X3" s="14"/>
+      <c r="Y3" s="14"/>
+      <c r="Z3" s="14"/>
+      <c r="AA3" s="14"/>
+      <c r="AB3" s="14"/>
+      <c r="AC3" s="14"/>
+      <c r="AD3" s="14"/>
+      <c r="AE3" s="14"/>
+      <c r="AF3" s="14"/>
+      <c r="AG3" s="15"/>
+      <c r="AI3" s="22"/>
+      <c r="AJ3" s="14"/>
+      <c r="AK3" s="14"/>
+      <c r="AL3" s="14"/>
+      <c r="AM3" s="14"/>
+      <c r="AN3" s="14"/>
+      <c r="AO3" s="15"/>
+      <c r="AQ3" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="AS3" s="2" t="s">
         <v>40</v>
       </c>
     </row>
+    <row r="4" spans="1:45" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="22"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="15"/>
+      <c r="R4" s="22"/>
+      <c r="T4" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="U4" s="24"/>
+      <c r="V4" s="24"/>
+      <c r="W4" s="24"/>
+      <c r="X4" s="14"/>
+      <c r="Y4" s="14"/>
+      <c r="Z4" s="14"/>
+      <c r="AA4" s="14"/>
+      <c r="AB4" s="14"/>
+      <c r="AC4" s="14"/>
+      <c r="AD4" s="14"/>
+      <c r="AE4" s="14"/>
+      <c r="AF4" s="14"/>
+      <c r="AG4" s="15"/>
+      <c r="AI4" s="22"/>
+      <c r="AJ4" s="14"/>
+      <c r="AK4" s="14"/>
+      <c r="AL4" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="AM4" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN4" s="14"/>
+      <c r="AO4" s="15"/>
+    </row>
+    <row r="5" spans="1:45" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="22"/>
+      <c r="B5" s="26">
+        <v>2020</v>
+      </c>
+      <c r="C5" s="27">
+        <v>6.0317460317460103</v>
+      </c>
+      <c r="D5" s="27">
+        <v>18.888888888888889</v>
+      </c>
+      <c r="E5" s="27">
+        <v>14.761904761904699</v>
+      </c>
+      <c r="F5" s="27">
+        <v>60.317460317460402</v>
+      </c>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="15"/>
+      <c r="R5" s="22"/>
+      <c r="S5" s="14"/>
+      <c r="T5" s="28">
+        <v>2020</v>
+      </c>
+      <c r="U5" s="29">
+        <v>2050</v>
+      </c>
+      <c r="V5" s="29"/>
+      <c r="W5" s="29"/>
+      <c r="X5" s="14"/>
+      <c r="Y5" s="14"/>
+      <c r="Z5" s="14"/>
+      <c r="AA5" s="14"/>
+      <c r="AB5" s="14"/>
+      <c r="AC5" s="14"/>
+      <c r="AD5" s="14"/>
+      <c r="AE5" s="14"/>
+      <c r="AF5" s="14"/>
+      <c r="AG5" s="15"/>
+      <c r="AI5" s="22"/>
+      <c r="AJ5" s="14"/>
+      <c r="AK5" s="14"/>
+      <c r="AL5" s="30">
+        <v>5714</v>
+      </c>
+      <c r="AM5" s="30">
+        <v>1802</v>
+      </c>
+      <c r="AN5" s="14"/>
+      <c r="AO5" s="15"/>
+    </row>
+    <row r="6" spans="1:45" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="22"/>
+      <c r="B6" s="26">
+        <v>2030</v>
+      </c>
+      <c r="C6" s="27">
+        <v>2.3809523809523601</v>
+      </c>
+      <c r="D6" s="27">
+        <v>20.63492063492064</v>
+      </c>
+      <c r="E6" s="27">
+        <v>17.142857142857103</v>
+      </c>
+      <c r="F6" s="27">
+        <v>59.841269841269899</v>
+      </c>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="15"/>
+      <c r="R6" s="22"/>
+      <c r="T6" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="U6" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="V6" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="W6" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="X6" s="34"/>
+      <c r="Y6" s="14"/>
+      <c r="Z6" s="14"/>
+      <c r="AA6" s="14"/>
+      <c r="AB6" s="14"/>
+      <c r="AC6" s="14"/>
+      <c r="AD6" s="14"/>
+      <c r="AE6" s="14"/>
+      <c r="AF6" s="14"/>
+      <c r="AG6" s="15"/>
+      <c r="AI6" s="22"/>
+      <c r="AJ6" s="14"/>
+      <c r="AK6" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="AL6" s="36">
+        <f>AL5/(AL5+AM5)</f>
+        <v>0.76024481106971797</v>
+      </c>
+      <c r="AM6" s="36">
+        <f>AM5/(AM5+AL5)</f>
+        <v>0.23975518893028205</v>
+      </c>
+      <c r="AN6" s="14"/>
+      <c r="AO6" s="15"/>
+      <c r="AR6" s="14"/>
+    </row>
+    <row r="7" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A7" s="22"/>
+      <c r="B7" s="26">
+        <v>2040</v>
+      </c>
+      <c r="C7" s="27">
+        <v>1.4285714285714299</v>
+      </c>
+      <c r="D7" s="27">
+        <v>23.492063492063469</v>
+      </c>
+      <c r="E7" s="27">
+        <v>19.682539682539602</v>
+      </c>
+      <c r="F7" s="27">
+        <v>55.396825396825498</v>
+      </c>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="15"/>
+      <c r="R7" s="22"/>
+      <c r="S7" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="T7" s="37">
+        <v>0.95399999999999996</v>
+      </c>
+      <c r="U7" s="38">
+        <v>0.99</v>
+      </c>
+      <c r="V7" s="39">
+        <v>0.9</v>
+      </c>
+      <c r="W7" s="38">
+        <v>0.77</v>
+      </c>
+      <c r="X7" s="14"/>
+      <c r="Y7" s="14"/>
+      <c r="Z7" s="14"/>
+      <c r="AA7" s="14"/>
+      <c r="AB7" s="14"/>
+      <c r="AC7" s="14"/>
+      <c r="AD7" s="14"/>
+      <c r="AE7" s="14"/>
+      <c r="AF7" s="14"/>
+      <c r="AG7" s="15"/>
+      <c r="AI7" s="22"/>
+      <c r="AJ7" s="14"/>
+      <c r="AK7" s="14"/>
+      <c r="AL7" s="14"/>
+      <c r="AM7" s="14"/>
+      <c r="AN7" s="14"/>
+      <c r="AO7" s="15"/>
+    </row>
+    <row r="8" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A8" s="22"/>
+      <c r="B8" s="26">
+        <v>2050</v>
+      </c>
+      <c r="C8" s="30">
+        <v>0</v>
+      </c>
+      <c r="D8" s="30">
+        <v>26.5</v>
+      </c>
+      <c r="E8" s="30">
+        <v>23.200000000000003</v>
+      </c>
+      <c r="F8" s="30">
+        <v>50.3</v>
+      </c>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="15"/>
+      <c r="R8" s="22"/>
+      <c r="S8" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="T8" s="37">
+        <v>2.4E-2</v>
+      </c>
+      <c r="U8" s="40">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="V8" s="41">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="W8" s="38">
+        <v>0.1</v>
+      </c>
+      <c r="X8" s="14"/>
+      <c r="Y8" s="14"/>
+      <c r="Z8" s="14"/>
+      <c r="AA8" s="14"/>
+      <c r="AB8" s="14"/>
+      <c r="AC8" s="14"/>
+      <c r="AD8" s="14"/>
+      <c r="AE8" s="14"/>
+      <c r="AF8" s="14"/>
+      <c r="AG8" s="15"/>
+      <c r="AI8" s="42"/>
+      <c r="AJ8" s="14"/>
+      <c r="AK8" s="14"/>
+      <c r="AL8" s="14"/>
+      <c r="AM8" s="14"/>
+      <c r="AN8" s="14"/>
+      <c r="AO8" s="15"/>
+      <c r="AR8" s="14"/>
+    </row>
+    <row r="9" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A9" s="22"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="15"/>
+      <c r="R9" s="22"/>
+      <c r="S9" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="T9" s="37">
+        <v>1.9E-2</v>
+      </c>
+      <c r="U9" s="40">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="V9" s="41">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="W9" s="38">
+        <v>0.1</v>
+      </c>
+      <c r="X9" s="14"/>
+      <c r="Y9" s="14"/>
+      <c r="Z9" s="14"/>
+      <c r="AA9" s="14"/>
+      <c r="AB9" s="14"/>
+      <c r="AC9" s="14"/>
+      <c r="AD9" s="14"/>
+      <c r="AE9" s="14"/>
+      <c r="AF9" s="14"/>
+      <c r="AG9" s="15"/>
+      <c r="AI9" s="22"/>
+      <c r="AJ9" s="14"/>
+      <c r="AK9" s="14"/>
+      <c r="AL9" s="14"/>
+      <c r="AM9" s="14"/>
+      <c r="AN9" s="14"/>
+      <c r="AO9" s="15"/>
+    </row>
+    <row r="10" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A10" s="22"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="15"/>
+      <c r="R10" s="22"/>
+      <c r="S10" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="T10" s="37">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="U10" s="36">
+        <v>0</v>
+      </c>
+      <c r="V10" s="39">
+        <v>0.01</v>
+      </c>
+      <c r="W10" s="38">
+        <v>0.03</v>
+      </c>
+      <c r="X10" s="14"/>
+      <c r="Y10" s="14"/>
+      <c r="Z10" s="14"/>
+      <c r="AA10" s="14"/>
+      <c r="AB10" s="14"/>
+      <c r="AC10" s="14"/>
+      <c r="AD10" s="14"/>
+      <c r="AE10" s="14"/>
+      <c r="AF10" s="14"/>
+      <c r="AG10" s="15"/>
+      <c r="AI10" s="22"/>
+      <c r="AJ10" s="14"/>
+      <c r="AK10" s="14"/>
+      <c r="AL10" s="14"/>
+      <c r="AM10" s="14"/>
+      <c r="AN10" s="14"/>
+      <c r="AO10" s="15"/>
+      <c r="AR10" s="14"/>
+    </row>
+    <row r="11" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A11" s="22"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="15"/>
+      <c r="R11" s="22"/>
+      <c r="S11" s="14"/>
+      <c r="T11" s="14"/>
+      <c r="U11" s="14"/>
+      <c r="V11" s="14"/>
+      <c r="W11" s="14"/>
+      <c r="X11" s="14"/>
+      <c r="Y11" s="14"/>
+      <c r="Z11" s="14"/>
+      <c r="AA11" s="14"/>
+      <c r="AB11" s="14"/>
+      <c r="AC11" s="14"/>
+      <c r="AD11" s="14"/>
+      <c r="AE11" s="14"/>
+      <c r="AF11" s="14"/>
+      <c r="AG11" s="15"/>
+      <c r="AI11" s="22"/>
+      <c r="AJ11" s="14"/>
+      <c r="AK11" s="14"/>
+      <c r="AL11" s="14"/>
+      <c r="AM11" s="14"/>
+      <c r="AN11" s="14"/>
+      <c r="AO11" s="15"/>
+    </row>
+    <row r="12" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A12" s="22"/>
+      <c r="B12" s="26">
+        <v>2020</v>
+      </c>
+      <c r="C12" s="27">
+        <v>5.2557625903430596</v>
+      </c>
+      <c r="D12" s="27">
+        <v>56.80467764930814</v>
+      </c>
+      <c r="E12" s="27">
+        <v>18.195940433317105</v>
+      </c>
+      <c r="F12" s="27">
+        <v>19.743619327031695</v>
+      </c>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="15"/>
+      <c r="R12" s="22"/>
+      <c r="S12" s="14"/>
+      <c r="T12" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="U12" s="43"/>
+      <c r="V12" s="43"/>
+      <c r="W12" s="43"/>
+      <c r="X12" s="14"/>
+      <c r="Y12" s="14"/>
+      <c r="Z12" s="14"/>
+      <c r="AA12" s="14"/>
+      <c r="AB12" s="14"/>
+      <c r="AC12" s="14"/>
+      <c r="AD12" s="14"/>
+      <c r="AE12" s="14"/>
+      <c r="AF12" s="14"/>
+      <c r="AG12" s="15"/>
+      <c r="AI12" s="22"/>
+      <c r="AJ12" s="14"/>
+      <c r="AK12" s="14"/>
+      <c r="AL12" s="14"/>
+      <c r="AM12" s="14"/>
+      <c r="AN12" s="14"/>
+      <c r="AO12" s="15"/>
+      <c r="AR12" s="14"/>
+    </row>
+    <row r="13" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A13" s="22"/>
+      <c r="B13" s="26">
+        <v>2030</v>
+      </c>
+      <c r="C13" s="27">
+        <v>0</v>
+      </c>
+      <c r="D13" s="27">
+        <v>60.583634820302699</v>
+      </c>
+      <c r="E13" s="27">
+        <v>9.9688486356856956</v>
+      </c>
+      <c r="F13" s="27">
+        <v>29.447516544011606</v>
+      </c>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="15"/>
+      <c r="R13" s="22"/>
+      <c r="S13" s="14"/>
+      <c r="T13" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="U13" s="44"/>
+      <c r="V13" s="44"/>
+      <c r="W13" s="44"/>
+      <c r="X13" s="14"/>
+      <c r="Y13" s="14"/>
+      <c r="Z13" s="14"/>
+      <c r="AA13" s="14"/>
+      <c r="AB13" s="14"/>
+      <c r="AC13" s="14"/>
+      <c r="AD13" s="14"/>
+      <c r="AE13" s="14"/>
+      <c r="AF13" s="14"/>
+      <c r="AG13" s="15"/>
+      <c r="AI13" s="22"/>
+      <c r="AJ13" s="14"/>
+      <c r="AK13" s="14"/>
+      <c r="AL13" s="14"/>
+      <c r="AM13" s="14"/>
+      <c r="AN13" s="14"/>
+      <c r="AO13" s="15"/>
+    </row>
+    <row r="14" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A14" s="22"/>
+      <c r="B14" s="26">
+        <v>2040</v>
+      </c>
+      <c r="C14" s="27">
+        <v>0</v>
+      </c>
+      <c r="D14" s="27">
+        <v>59.422463594933298</v>
+      </c>
+      <c r="E14" s="27">
+        <v>10.759582340967405</v>
+      </c>
+      <c r="F14" s="27">
+        <v>29.817954064099297</v>
+      </c>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="15"/>
+      <c r="R14" s="22"/>
+      <c r="S14" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="T14" s="45" t="s">
+        <v>56</v>
+      </c>
+      <c r="U14" s="45" t="s">
+        <v>57</v>
+      </c>
+      <c r="V14" s="45" t="s">
+        <v>58</v>
+      </c>
+      <c r="W14" s="45" t="s">
+        <v>60</v>
+      </c>
+      <c r="X14" s="14"/>
+      <c r="Y14" s="14"/>
+      <c r="Z14" s="14"/>
+      <c r="AA14" s="14"/>
+      <c r="AB14" s="14"/>
+      <c r="AC14" s="14"/>
+      <c r="AD14" s="14"/>
+      <c r="AE14" s="14"/>
+      <c r="AF14" s="14"/>
+      <c r="AG14" s="15"/>
+      <c r="AI14" s="22"/>
+      <c r="AJ14" s="14"/>
+      <c r="AK14" s="14"/>
+      <c r="AL14" s="14"/>
+      <c r="AM14" s="14"/>
+      <c r="AN14" s="14"/>
+      <c r="AO14" s="15"/>
+    </row>
+    <row r="15" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A15" s="22"/>
+      <c r="B15" s="26">
+        <v>2050</v>
+      </c>
+      <c r="C15" s="30">
+        <v>0</v>
+      </c>
+      <c r="D15" s="30">
+        <v>59</v>
+      </c>
+      <c r="E15" s="30">
+        <v>11</v>
+      </c>
+      <c r="F15" s="30">
+        <v>30</v>
+      </c>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="15"/>
+      <c r="R15" s="22"/>
+      <c r="S15" s="26">
+        <v>2020</v>
+      </c>
+      <c r="T15" s="46">
+        <v>0.95399999999999996</v>
+      </c>
+      <c r="U15" s="46">
+        <v>2.4E-2</v>
+      </c>
+      <c r="V15" s="46">
+        <v>1.9E-2</v>
+      </c>
+      <c r="W15" s="46">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="X15" s="14"/>
+      <c r="Y15" s="14"/>
+      <c r="Z15" s="14"/>
+      <c r="AA15" s="14"/>
+      <c r="AB15" s="14"/>
+      <c r="AC15" s="14"/>
+      <c r="AD15" s="14"/>
+      <c r="AE15" s="14"/>
+      <c r="AF15" s="14"/>
+      <c r="AG15" s="15"/>
+      <c r="AI15" s="22"/>
+      <c r="AJ15" s="14"/>
+      <c r="AK15" s="14"/>
+      <c r="AL15" s="14"/>
+      <c r="AM15" s="14"/>
+      <c r="AN15" s="14"/>
+      <c r="AO15" s="15"/>
+    </row>
+    <row r="16" spans="1:45" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="22"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="14"/>
+      <c r="P16" s="15"/>
+      <c r="R16" s="22"/>
+      <c r="S16" s="47">
+        <v>2030</v>
+      </c>
+      <c r="T16" s="46">
+        <f>T15+(T18-T15)*($S$16-$S$15)/($S$18-$S$15)</f>
+        <v>0.93599999999999994</v>
+      </c>
+      <c r="U16" s="46">
+        <f>U15+(U18-U15)*($S$16-$S$15)/($S$18-$S$15)</f>
+        <v>3.1E-2</v>
+      </c>
+      <c r="V16" s="46">
+        <f>V15+(V18-V15)*($S$16-$S$15)/($S$18-$S$15)</f>
+        <v>2.7666666666666666E-2</v>
+      </c>
+      <c r="W16" s="46">
+        <f>W15+(W18-W15)*($S$16-$S$15)/($S$18-$S$15)</f>
+        <v>5.333333333333334E-3</v>
+      </c>
+      <c r="X16" s="14"/>
+      <c r="Y16" s="14"/>
+      <c r="Z16" s="14"/>
+      <c r="AA16" s="14"/>
+      <c r="AB16" s="14"/>
+      <c r="AC16" s="14"/>
+      <c r="AD16" s="14"/>
+      <c r="AE16" s="14"/>
+      <c r="AF16" s="14"/>
+      <c r="AG16" s="15"/>
+      <c r="AI16" s="22"/>
+      <c r="AJ16" s="14"/>
+      <c r="AK16" s="14"/>
+      <c r="AL16" s="14"/>
+      <c r="AM16" s="14"/>
+      <c r="AN16" s="14"/>
+      <c r="AO16" s="15"/>
+    </row>
+    <row r="17" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A17" s="22"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="14"/>
+      <c r="P17" s="15"/>
+      <c r="R17" s="22"/>
+      <c r="S17" s="26">
+        <v>2040</v>
+      </c>
+      <c r="T17" s="46">
+        <f>T15+(T18-T15)*($S$17-$S$15)/($S$18-$S$15)</f>
+        <v>0.91800000000000004</v>
+      </c>
+      <c r="U17" s="46">
+        <f>U15+(U18-U15)*($S$17-$S$15)/($S$18-$S$15)</f>
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="V17" s="46">
+        <f>V15+(V18-V15)*($S$17-$S$15)/($S$18-$S$15)</f>
+        <v>3.6333333333333329E-2</v>
+      </c>
+      <c r="W17" s="46">
+        <f>W15+(W18-W15)*($S$17-$S$15)/($S$18-$S$15)</f>
+        <v>7.6666666666666671E-3</v>
+      </c>
+      <c r="X17" s="14"/>
+      <c r="Y17" s="14"/>
+      <c r="Z17" s="14"/>
+      <c r="AA17" s="14"/>
+      <c r="AB17" s="14"/>
+      <c r="AC17" s="14"/>
+      <c r="AD17" s="14"/>
+      <c r="AE17" s="14"/>
+      <c r="AF17" s="14"/>
+      <c r="AG17" s="15"/>
+      <c r="AI17" s="22"/>
+      <c r="AJ17" s="14"/>
+      <c r="AK17" s="14"/>
+      <c r="AM17" s="14"/>
+      <c r="AN17" s="14"/>
+      <c r="AO17" s="15"/>
+    </row>
+    <row r="18" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A18" s="22"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" s="48"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="48"/>
+      <c r="H18" s="48"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="14"/>
+      <c r="P18" s="15"/>
+      <c r="R18" s="22"/>
+      <c r="S18" s="47">
+        <v>2050</v>
+      </c>
+      <c r="T18" s="46">
+        <v>0.9</v>
+      </c>
+      <c r="U18" s="46">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="V18" s="46">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="W18" s="46">
+        <v>0.01</v>
+      </c>
+      <c r="X18" s="14"/>
+      <c r="Y18" s="14"/>
+      <c r="Z18" s="14"/>
+      <c r="AA18" s="14"/>
+      <c r="AB18" s="14"/>
+      <c r="AC18" s="14"/>
+      <c r="AD18" s="14"/>
+      <c r="AE18" s="14"/>
+      <c r="AF18" s="14"/>
+      <c r="AG18" s="15"/>
+      <c r="AI18" s="22"/>
+      <c r="AJ18" s="14"/>
+      <c r="AK18" s="14"/>
+      <c r="AM18" s="14"/>
+      <c r="AN18" s="14"/>
+      <c r="AO18" s="15"/>
+    </row>
+    <row r="19" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A19" s="22"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="49" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" s="49"/>
+      <c r="E19" s="49" t="s">
+        <v>65</v>
+      </c>
+      <c r="F19" s="49"/>
+      <c r="G19" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="H19" s="21"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="14"/>
+      <c r="O19" s="14"/>
+      <c r="P19" s="15"/>
+      <c r="R19" s="22"/>
+      <c r="S19" s="14"/>
+      <c r="T19" s="14"/>
+      <c r="U19" s="14"/>
+      <c r="V19" s="14"/>
+      <c r="W19" s="14"/>
+      <c r="X19" s="14"/>
+      <c r="Y19" s="14"/>
+      <c r="Z19" s="14"/>
+      <c r="AA19" s="14"/>
+      <c r="AB19" s="14"/>
+      <c r="AC19" s="14"/>
+      <c r="AD19" s="14"/>
+      <c r="AE19" s="14"/>
+      <c r="AF19" s="14"/>
+      <c r="AG19" s="15"/>
+      <c r="AI19" s="22"/>
+      <c r="AJ19" s="14"/>
+      <c r="AK19" s="14"/>
+      <c r="AM19" s="14"/>
+      <c r="AN19" s="14"/>
+      <c r="AO19" s="15"/>
+    </row>
+    <row r="20" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A20" s="22"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="E20" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="F20" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="G20" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="H20" s="50" t="s">
+        <v>70</v>
+      </c>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="14"/>
+      <c r="O20" s="14"/>
+      <c r="P20" s="15"/>
+      <c r="R20" s="22"/>
+      <c r="S20" s="14"/>
+      <c r="T20" s="14"/>
+      <c r="U20" s="14"/>
+      <c r="V20" s="14"/>
+      <c r="W20" s="14"/>
+      <c r="X20" s="14"/>
+      <c r="Y20" s="14"/>
+      <c r="Z20" s="14"/>
+      <c r="AA20" s="14"/>
+      <c r="AB20" s="14"/>
+      <c r="AC20" s="14"/>
+      <c r="AD20" s="14"/>
+      <c r="AE20" s="14"/>
+      <c r="AF20" s="14"/>
+      <c r="AG20" s="15"/>
+      <c r="AI20" s="22"/>
+      <c r="AJ20" s="14"/>
+      <c r="AK20" s="14"/>
+      <c r="AM20" s="14"/>
+      <c r="AN20" s="14"/>
+      <c r="AO20" s="15"/>
+    </row>
+    <row r="21" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="22"/>
+      <c r="B21" s="26">
+        <v>2020</v>
+      </c>
+      <c r="C21" s="51">
+        <v>55</v>
+      </c>
+      <c r="D21" s="51">
+        <v>5</v>
+      </c>
+      <c r="E21" s="51">
+        <f>55*10</f>
+        <v>550</v>
+      </c>
+      <c r="F21" s="51">
+        <f>5*10</f>
+        <v>50</v>
+      </c>
+      <c r="G21" s="52">
+        <f>E21/(E21+F21)</f>
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="H21" s="52">
+        <f>F21/(E21+F21)</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="14"/>
+      <c r="O21" s="14"/>
+      <c r="P21" s="15"/>
+      <c r="R21" s="53"/>
+      <c r="S21" s="54"/>
+      <c r="T21" s="54"/>
+      <c r="U21" s="54"/>
+      <c r="V21" s="54"/>
+      <c r="W21" s="54"/>
+      <c r="X21" s="54"/>
+      <c r="Y21" s="54"/>
+      <c r="Z21" s="54"/>
+      <c r="AA21" s="54"/>
+      <c r="AB21" s="54"/>
+      <c r="AC21" s="54"/>
+      <c r="AD21" s="54"/>
+      <c r="AE21" s="54"/>
+      <c r="AF21" s="54"/>
+      <c r="AG21" s="55"/>
+      <c r="AI21" s="22"/>
+      <c r="AJ21" s="14"/>
+      <c r="AK21" s="14"/>
+      <c r="AM21" s="14"/>
+      <c r="AN21" s="14"/>
+      <c r="AO21" s="15"/>
+    </row>
+    <row r="22" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A22" s="22"/>
+      <c r="B22" s="26">
+        <v>2030</v>
+      </c>
+      <c r="C22" s="51">
+        <v>100</v>
+      </c>
+      <c r="D22" s="51">
+        <v>10</v>
+      </c>
+      <c r="E22" s="51">
+        <f>SUM(C21:C22)*10</f>
+        <v>1550</v>
+      </c>
+      <c r="F22" s="51">
+        <f>SUM(D21:D22)*10</f>
+        <v>150</v>
+      </c>
+      <c r="G22" s="52">
+        <f t="shared" ref="G22:G24" si="0">E22/(E22+F22)</f>
+        <v>0.91176470588235292</v>
+      </c>
+      <c r="H22" s="52">
+        <f t="shared" ref="H22:H24" si="1">F22/(E22+F22)</f>
+        <v>8.8235294117647065E-2</v>
+      </c>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="14"/>
+      <c r="O22" s="14"/>
+      <c r="P22" s="15"/>
+      <c r="AI22" s="22"/>
+      <c r="AJ22" s="14"/>
+      <c r="AK22" s="14"/>
+      <c r="AM22" s="14"/>
+      <c r="AN22" s="14"/>
+      <c r="AO22" s="15"/>
+    </row>
+    <row r="23" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A23" s="22"/>
+      <c r="B23" s="26">
+        <v>2040</v>
+      </c>
+      <c r="C23" s="51">
+        <v>125</v>
+      </c>
+      <c r="D23" s="51">
+        <v>15</v>
+      </c>
+      <c r="E23" s="51">
+        <f>SUM(C21:C23)*10</f>
+        <v>2800</v>
+      </c>
+      <c r="F23" s="51">
+        <f>SUM(D21:D23)*10</f>
+        <v>300</v>
+      </c>
+      <c r="G23" s="52">
+        <f t="shared" si="0"/>
+        <v>0.90322580645161288</v>
+      </c>
+      <c r="H23" s="52">
+        <f t="shared" si="1"/>
+        <v>9.6774193548387094E-2</v>
+      </c>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="14"/>
+      <c r="N23" s="14"/>
+      <c r="O23" s="14"/>
+      <c r="P23" s="15"/>
+      <c r="AI23" s="22"/>
+      <c r="AJ23" s="14"/>
+      <c r="AK23" s="14"/>
+      <c r="AM23" s="14"/>
+      <c r="AN23" s="14"/>
+      <c r="AO23" s="15"/>
+    </row>
+    <row r="24" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A24" s="22"/>
+      <c r="B24" s="26">
+        <v>2050</v>
+      </c>
+      <c r="C24" s="51">
+        <v>130</v>
+      </c>
+      <c r="D24" s="51">
+        <v>20</v>
+      </c>
+      <c r="E24" s="51">
+        <f>SUM(C21:C24)*10</f>
+        <v>4100</v>
+      </c>
+      <c r="F24" s="51">
+        <f>SUM(D21:D24)*10</f>
+        <v>500</v>
+      </c>
+      <c r="G24" s="52">
+        <f t="shared" si="0"/>
+        <v>0.89130434782608692</v>
+      </c>
+      <c r="H24" s="52">
+        <f t="shared" si="1"/>
+        <v>0.10869565217391304</v>
+      </c>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="14"/>
+      <c r="M24" s="14"/>
+      <c r="N24" s="14"/>
+      <c r="O24" s="14"/>
+      <c r="P24" s="15"/>
+      <c r="AI24" s="22"/>
+      <c r="AJ24" s="14"/>
+      <c r="AK24" s="14"/>
+      <c r="AL24" s="14"/>
+      <c r="AM24" s="14"/>
+      <c r="AN24" s="14"/>
+      <c r="AO24" s="15"/>
+    </row>
+    <row r="25" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="22"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="14"/>
+      <c r="N25" s="14"/>
+      <c r="O25" s="14"/>
+      <c r="P25" s="15"/>
+      <c r="AI25" s="53"/>
+      <c r="AJ25" s="54"/>
+      <c r="AK25" s="54"/>
+      <c r="AL25" s="54"/>
+      <c r="AM25" s="54"/>
+      <c r="AN25" s="54"/>
+      <c r="AO25" s="55"/>
+    </row>
+    <row r="26" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A26" s="22"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="14"/>
+      <c r="M26" s="14"/>
+      <c r="N26" s="14"/>
+      <c r="O26" s="14"/>
+      <c r="P26" s="15"/>
+    </row>
+    <row r="27" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A27" s="22"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="14"/>
+      <c r="M27" s="14"/>
+      <c r="N27" s="14"/>
+      <c r="O27" s="14"/>
+      <c r="P27" s="15"/>
+    </row>
+    <row r="28" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A28" s="22"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="14"/>
+      <c r="M28" s="14"/>
+      <c r="N28" s="14"/>
+      <c r="O28" s="14"/>
+      <c r="P28" s="15"/>
+    </row>
+    <row r="29" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A29" s="22"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="14"/>
+      <c r="K29" s="14"/>
+      <c r="L29" s="14"/>
+      <c r="M29" s="14"/>
+      <c r="N29" s="14"/>
+      <c r="O29" s="14"/>
+      <c r="P29" s="15"/>
+    </row>
+    <row r="30" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A30" s="22"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="14"/>
+      <c r="L30" s="14"/>
+      <c r="M30" s="14"/>
+      <c r="N30" s="14"/>
+      <c r="O30" s="14"/>
+      <c r="P30" s="15"/>
+    </row>
+    <row r="31" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A31" s="22"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="14"/>
+      <c r="L31" s="14"/>
+      <c r="M31" s="14"/>
+      <c r="N31" s="14"/>
+      <c r="O31" s="14"/>
+      <c r="P31" s="15"/>
+    </row>
+    <row r="32" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A32" s="22"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="14"/>
+      <c r="K32" s="14"/>
+      <c r="L32" s="14"/>
+      <c r="M32" s="14"/>
+      <c r="N32" s="14"/>
+      <c r="O32" s="14"/>
+      <c r="P32" s="15"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A33" s="22"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="14"/>
+      <c r="J33" s="14"/>
+      <c r="K33" s="14"/>
+      <c r="L33" s="14"/>
+      <c r="M33" s="14"/>
+      <c r="N33" s="14"/>
+      <c r="O33" s="14"/>
+      <c r="P33" s="15"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A34" s="22"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="14"/>
+      <c r="J34" s="14"/>
+      <c r="K34" s="14"/>
+      <c r="L34" s="14"/>
+      <c r="M34" s="14"/>
+      <c r="N34" s="14"/>
+      <c r="O34" s="14"/>
+      <c r="P34" s="15"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A35" s="22"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="14"/>
+      <c r="J35" s="14"/>
+      <c r="K35" s="14"/>
+      <c r="L35" s="14"/>
+      <c r="M35" s="14"/>
+      <c r="N35" s="14"/>
+      <c r="O35" s="14"/>
+      <c r="P35" s="15"/>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A36" s="22"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="14"/>
+      <c r="J36" s="14"/>
+      <c r="K36" s="14"/>
+      <c r="L36" s="14"/>
+      <c r="M36" s="14"/>
+      <c r="N36" s="14"/>
+      <c r="O36" s="14"/>
+      <c r="P36" s="15"/>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A37" s="22"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="14"/>
+      <c r="J37" s="14"/>
+      <c r="K37" s="14"/>
+      <c r="L37" s="14"/>
+      <c r="M37" s="14"/>
+      <c r="N37" s="14"/>
+      <c r="O37" s="14"/>
+      <c r="P37" s="15"/>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A38" s="22"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="14"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="14"/>
+      <c r="J38" s="14"/>
+      <c r="K38" s="14"/>
+      <c r="L38" s="14"/>
+      <c r="M38" s="14"/>
+      <c r="N38" s="14"/>
+      <c r="O38" s="14"/>
+      <c r="P38" s="15"/>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A39" s="22"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="14"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="14"/>
+      <c r="J39" s="14"/>
+      <c r="K39" s="14"/>
+      <c r="L39" s="14"/>
+      <c r="M39" s="14"/>
+      <c r="N39" s="14"/>
+      <c r="O39" s="14"/>
+      <c r="P39" s="15"/>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A40" s="22"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="14"/>
+      <c r="H40" s="14"/>
+      <c r="I40" s="14"/>
+      <c r="J40" s="14"/>
+      <c r="K40" s="14"/>
+      <c r="L40" s="14"/>
+      <c r="M40" s="14"/>
+      <c r="N40" s="14"/>
+      <c r="O40" s="14"/>
+      <c r="P40" s="15"/>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A41" s="22"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="14"/>
+      <c r="H41" s="14"/>
+      <c r="I41" s="14"/>
+      <c r="J41" s="14"/>
+      <c r="K41" s="14"/>
+      <c r="L41" s="14"/>
+      <c r="M41" s="14"/>
+      <c r="N41" s="14"/>
+      <c r="O41" s="14"/>
+      <c r="P41" s="15"/>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A42" s="22"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="14"/>
+      <c r="H42" s="14"/>
+      <c r="I42" s="14"/>
+      <c r="J42" s="14"/>
+      <c r="K42" s="14"/>
+      <c r="L42" s="14"/>
+      <c r="M42" s="14"/>
+      <c r="N42" s="14"/>
+      <c r="O42" s="14"/>
+      <c r="P42" s="15"/>
+    </row>
+    <row r="43" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A43" s="53"/>
+      <c r="B43" s="54"/>
+      <c r="C43" s="54"/>
+      <c r="D43" s="54"/>
+      <c r="E43" s="54"/>
+      <c r="F43" s="54"/>
+      <c r="G43" s="54"/>
+      <c r="H43" s="54"/>
+      <c r="I43" s="54"/>
+      <c r="J43" s="54"/>
+      <c r="K43" s="54"/>
+      <c r="L43" s="54"/>
+      <c r="M43" s="54"/>
+      <c r="N43" s="54"/>
+      <c r="O43" s="54"/>
+      <c r="P43" s="55"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:C1"/>
+  <mergeCells count="14">
+    <mergeCell ref="U5:W5"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="T12:W12"/>
+    <mergeCell ref="T13:W13"/>
+    <mergeCell ref="C18:H18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="R1:AG1"/>
+    <mergeCell ref="AI1:AO1"/>
+    <mergeCell ref="AQ1:AS1"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="T4:W4"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="https://data.europa.eu/doi/10.2760/160859" xr:uid="{6E7B4B83-CD24-453A-82D9-3E03A51E6BA1}"/>
-    <hyperlink ref="C3" r:id="rId2" display="https://doi.org/10.1016/j.ijft.2023.100340" xr:uid="{3D6BEAF7-742A-4264-BF80-7A80E75597DB}"/>
+    <hyperlink ref="AS2" r:id="rId1" display="https://data.europa.eu/doi/10.2760/160859" xr:uid="{252E041E-AB95-410D-A6E7-C9B51F83ABEB}"/>
+    <hyperlink ref="AS3" r:id="rId2" display="https://doi.org/10.1016/j.ijft.2023.100340" xr:uid="{8143E460-2069-402A-9E56-42AAD39FBE4B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>